--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.910463666666666</v>
+        <v>3.352819</v>
       </c>
       <c r="H2">
-        <v>11.731391</v>
+        <v>10.058457</v>
       </c>
       <c r="I2">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="J2">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N2">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q2">
-        <v>4.019089829887221</v>
+        <v>10.84751389388533</v>
       </c>
       <c r="R2">
-        <v>36.17180846898499</v>
+        <v>97.627625044968</v>
       </c>
       <c r="S2">
-        <v>0.002072899874350121</v>
+        <v>0.004790228437341407</v>
       </c>
       <c r="T2">
-        <v>0.002072899874350121</v>
+        <v>0.004790228437341408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.910463666666666</v>
+        <v>3.352819</v>
       </c>
       <c r="H3">
-        <v>11.731391</v>
+        <v>10.058457</v>
       </c>
       <c r="I3">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="J3">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.820535</v>
       </c>
       <c r="O3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q3">
-        <v>28.44280310157611</v>
+        <v>24.38676811272167</v>
       </c>
       <c r="R3">
-        <v>255.985227914185</v>
+        <v>219.480913014495</v>
       </c>
       <c r="S3">
-        <v>0.01466975993842784</v>
+        <v>0.01076912104019148</v>
       </c>
       <c r="T3">
-        <v>0.01466975993842784</v>
+        <v>0.01076912104019148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.910463666666666</v>
+        <v>3.352819</v>
       </c>
       <c r="H4">
-        <v>11.731391</v>
+        <v>10.058457</v>
       </c>
       <c r="I4">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="J4">
-        <v>0.02584512419166263</v>
+        <v>0.02224149976981271</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.539461</v>
       </c>
       <c r="O4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q4">
-        <v>17.64852343558344</v>
+        <v>15.13178736351967</v>
       </c>
       <c r="R4">
-        <v>158.836710920251</v>
+        <v>136.186086271677</v>
       </c>
       <c r="S4">
-        <v>0.00910246437888467</v>
+        <v>0.006682150292279819</v>
       </c>
       <c r="T4">
-        <v>0.00910246437888467</v>
+        <v>0.006682150292279819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>375.035965</v>
       </c>
       <c r="I5">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="J5">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N5">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q5">
-        <v>128.4846130159194</v>
+        <v>404.4564530170178</v>
       </c>
       <c r="R5">
-        <v>1156.361517143275</v>
+        <v>3640.10807715316</v>
       </c>
       <c r="S5">
-        <v>0.06626767488401641</v>
+        <v>0.1786067131935621</v>
       </c>
       <c r="T5">
-        <v>0.06626767488401641</v>
+        <v>0.1786067131935621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>375.035965</v>
       </c>
       <c r="I6">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="J6">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>21.820535</v>
       </c>
       <c r="O6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q6">
-        <v>909.2761556156971</v>
+        <v>909.2761556156973</v>
       </c>
       <c r="R6">
-        <v>8183.485400541274</v>
+        <v>8183.485400541275</v>
       </c>
       <c r="S6">
-        <v>0.4689714608290378</v>
+        <v>0.4015335256202832</v>
       </c>
       <c r="T6">
-        <v>0.4689714608290378</v>
+        <v>0.4015335256202832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>375.035965</v>
       </c>
       <c r="I7">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="J7">
-        <v>0.8262320377664542</v>
+        <v>0.8292884613633072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>13.539461</v>
       </c>
       <c r="O7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q7">
-        <v>564.1983135238738</v>
+        <v>564.1983135238739</v>
       </c>
       <c r="R7">
         <v>5077.784821714865</v>
       </c>
       <c r="S7">
-        <v>0.2909929020533999</v>
+        <v>0.249148222549462</v>
       </c>
       <c r="T7">
-        <v>0.2909929020533999</v>
+        <v>0.249148222549462</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>67.14383099999999</v>
       </c>
       <c r="I8">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="J8">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N8">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O8">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P8">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q8">
-        <v>23.00299157293166</v>
+        <v>72.41107057088264</v>
       </c>
       <c r="R8">
-        <v>207.026924156385</v>
+        <v>651.6996351379439</v>
       </c>
       <c r="S8">
-        <v>0.01186410365516636</v>
+        <v>0.03197650381646464</v>
       </c>
       <c r="T8">
-        <v>0.01186410365516636</v>
+        <v>0.03197650381646464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>67.14383099999999</v>
       </c>
       <c r="I9">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="J9">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.820535</v>
       </c>
       <c r="O9">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P9">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q9">
         <v>162.7904793743983</v>
@@ -1004,10 +1004,10 @@
         <v>1465.114314369585</v>
       </c>
       <c r="S9">
-        <v>0.08396138890233643</v>
+        <v>0.07188776997716061</v>
       </c>
       <c r="T9">
-        <v>0.08396138890233643</v>
+        <v>0.07188776997716061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>67.14383099999999</v>
       </c>
       <c r="I10">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="J10">
-        <v>0.1479228380418833</v>
+        <v>0.1484700388668802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>13.539461</v>
       </c>
       <c r="O10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P10">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q10">
         <v>101.0101423572323</v>
       </c>
       <c r="R10">
-        <v>909.0912812150909</v>
+        <v>909.0912812150908</v>
       </c>
       <c r="S10">
-        <v>0.05209734548438052</v>
+        <v>0.04460576507325494</v>
       </c>
       <c r="T10">
-        <v>0.05209734548438052</v>
+        <v>0.04460576507325494</v>
       </c>
     </row>
   </sheetData>
